--- a/biology/Histoire de la zoologie et de la botanique/Henri_du_Buysson/Henri_du_Buysson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_du_Buysson/Henri_du_Buysson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Julien Charles du Buysson, dit le « marquis du Buysson », né le 4 juin 1856 au château du Vernet à Broût-Vernet (Allier) est un scientifique français connu principalement pour ses travaux dans le domaine de l'entomologie. Il était le fils du botaniste François du Buysson et de son épouse Mathilde de Montaignac de Chauvance.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études secondaires à Riom, à l'Institution Sainte-Marie, et un diplôme de bachelier ès-lettres, Henri du Buysson fit son droit à Paris. Mais sa véritable passion était la science, en particulier l'étude des insectes. Dès sa jeunesse, il avait établi dans le château familial du Vernet un laboratoire qu'il partageait avec son frère Robert du Buysson, appelé lui aussi à devenir un scientifique de renom.
 Henri du Buysson appartenait à de nombreuses sociétés savantes comme la Société entomologique de France et la Société royale entomologique d’Égypte. Auteur de nombreux articles pour la Revue scientifique du Bourbonnais, il était aussi membre du comité de rédaction de la revue Miscellanea Entomologica.
